--- a/milestone_3/TimeComparison.xlsx
+++ b/milestone_3/TimeComparison.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WashU\2018 Spring Semester\CSE 517A Machine Learning\Application Project\cse517project\milestone_4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F41CDD-57C3-4E2E-AD6D-EC93894A4FD1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24426"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{73A2CD63-8D68-4A4E-A3D8-E2CACB37AC5D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="15360" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="decisionTree.py" sheetId="1" r:id="rId1"/>
@@ -19,9 +13,13 @@
     <sheet name="randomForest.py" sheetId="4" r:id="rId4"/>
     <sheet name="kernelSVM.py" sheetId="5" r:id="rId5"/>
     <sheet name="GP.py" sheetId="7" r:id="rId6"/>
+    <sheet name="NN.py" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Train</t>
   </si>
@@ -46,15 +44,49 @@
   <si>
     <t>test_test</t>
   </si>
+  <si>
+    <t>train time</t>
+  </si>
+  <si>
+    <t>test time</t>
+  </si>
+  <si>
+    <t>average loss</t>
+  </si>
+  <si>
+    <t>RMS error</t>
+  </si>
+  <si>
+    <t>re-run</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,14 +109,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -142,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -194,7 +231,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -388,26 +425,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7554F7B-9DDF-4943-B6A3-A233EFB6A5D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +479,7 @@
         <v>7.2860717773400004E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -479,20 +516,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33563E2-55D8-4A1A-9622-E8B275F19705}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -527,7 +569,7 @@
         <v>0.37918996810900002</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -562,7 +604,7 @@
         <v>8.2015991210899997E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -599,20 +641,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0489698E-A314-4F1D-AB29-CAE55109877D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -647,7 +694,7 @@
         <v>7.2289943695100001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -682,7 +729,7 @@
         <v>8.8682174682599996E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -719,20 +766,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9B7614-669C-41FC-87FE-58D5EB00175C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -767,7 +819,7 @@
         <v>3.9099931716900002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -802,7 +854,7 @@
         <v>3.7579536437999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -839,20 +891,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2A36E4-C690-427B-A609-8111FEA08CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -887,7 +944,7 @@
         <v>8.7596893310499996E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -922,7 +979,7 @@
         <v>4.97541427612E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -959,20 +1016,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E96743F-421B-4B4E-A179-123AD73FF93B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1007,7 +1069,7 @@
         <v>1.9527339935300001</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1042,7 +1104,7 @@
         <v>18.950396060900001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1079,5 +1141,225 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>9.8834999999999997</v>
+      </c>
+      <c r="C2">
+        <v>9.8666999999999998</v>
+      </c>
+      <c r="D2">
+        <v>10.533799999999999</v>
+      </c>
+      <c r="E2">
+        <v>9.8233999999999995</v>
+      </c>
+      <c r="F2">
+        <v>10.9261</v>
+      </c>
+      <c r="G2">
+        <v>11.028700000000001</v>
+      </c>
+      <c r="H2">
+        <v>9.7943999999999996</v>
+      </c>
+      <c r="I2">
+        <v>9.7395999999999994</v>
+      </c>
+      <c r="J2">
+        <v>10.194800000000001</v>
+      </c>
+      <c r="K2">
+        <v>10.466100000000001</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(B2:K2)</f>
+        <v>10.225709999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.73280000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.73319999999999996</v>
+      </c>
+      <c r="E3">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="F3">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.94</v>
+      </c>
+      <c r="H3">
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.72189999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="K3">
+        <v>0.72240000000000004</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(B3:K3)</f>
+        <v>0.75117999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.1248319999999998E-5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.1873496000000001E-5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.1891017000000003E-5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.9357771999999999E-5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.2076131999999997E-5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.810752E-5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.0020930000000001E-5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.6567773999999999E-5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3.0026546E-5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.0163823E-5</v>
+      </c>
+      <c r="L4" s="1">
+        <f>AVERAGE(B4:K4)</f>
+        <v>3.0133333000000002E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <f>AVERAGE(B5:K5)</f>
+        <v>5.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>